--- a/galaxy-sop-server/src/main/webapp/template/zixunGradeTemplate.xlsx
+++ b/galaxy-sop-server/src/main/webapp/template/zixunGradeTemplate.xlsx
@@ -10,7 +10,7 @@
     <sheet name="创情资讯" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">创情资讯!$A$2:$AD$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">创情资讯!$A$3:$AD$23</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2011/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,10 @@
   </si>
   <si>
     <t>10 时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出时间：2016-9-5   统计时段：2016-09-18～2016-09-24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,6 +236,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -246,7 +292,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,14 +395,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC21" sqref="AC21"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -752,190 +813,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="37"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="33" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AD2" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="2" t="s">
+    <row r="3" spans="1:30" ht="16.5" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="P3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="R3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="T3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="X3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-    </row>
-    <row r="3" spans="1:30" s="14" customFormat="1" ht="14.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="13"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
     </row>
     <row r="4" spans="1:30" s="14" customFormat="1" ht="14.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="8"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="11"/>
       <c r="S4" s="12"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="11"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -945,11 +1008,11 @@
       <c r="A5" s="10"/>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -979,9 +1042,9 @@
       <c r="C6" s="7"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -1010,19 +1073,19 @@
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="11"/>
       <c r="S7" s="12"/>
       <c r="T7" s="7"/>
@@ -1040,21 +1103,21 @@
     <row r="8" spans="1:30" s="14" customFormat="1" ht="14.25">
       <c r="A8" s="10"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="15"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
       <c r="G8" s="8"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="11"/>
       <c r="S8" s="12"/>
       <c r="T8" s="7"/>
@@ -1074,7 +1137,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
       <c r="H9" s="11"/>
@@ -1105,10 +1168,10 @@
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -1136,11 +1199,11 @@
     <row r="11" spans="1:30" s="14" customFormat="1" ht="14.25">
       <c r="A11" s="10"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -1206,17 +1269,17 @@
       <c r="F13" s="9"/>
       <c r="G13" s="8"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="17"/>
+      <c r="S13" s="12"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -1224,7 +1287,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="17"/>
+      <c r="AA13" s="12"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="13"/>
@@ -1236,19 +1299,19 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
@@ -1256,7 +1319,7 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="12"/>
+      <c r="AA14" s="17"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
       <c r="AD14" s="13"/>
@@ -1264,23 +1327,23 @@
     <row r="15" spans="1:30" s="14" customFormat="1" ht="14.25">
       <c r="A15" s="10"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="16"/>
+      <c r="S15" s="12"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -1293,26 +1356,26 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:30" s="14" customFormat="1" ht="126" customHeight="1">
+    <row r="16" spans="1:30" s="14" customFormat="1" ht="14.25">
       <c r="A16" s="10"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="32"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -1325,30 +1388,26 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="13"/>
     </row>
-    <row r="17" spans="1:30" s="14" customFormat="1" ht="14.25">
+    <row r="17" spans="1:30" s="14" customFormat="1" ht="126" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="17">
-        <v>200000</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="12"/>
+      <c r="S17" s="32"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -1364,11 +1423,11 @@
     <row r="18" spans="1:30" s="14" customFormat="1" ht="14.25">
       <c r="A18" s="10"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -1399,18 +1458,18 @@
       <c r="C19" s="15"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
       <c r="R19" s="11"/>
       <c r="S19" s="12"/>
       <c r="T19" s="7"/>
@@ -1425,68 +1484,69 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30" s="19" customFormat="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="31"/>
+    <row r="20" spans="1:30" s="14" customFormat="1" ht="14.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="13"/>
     </row>
     <row r="21" spans="1:30" s="19" customFormat="1">
-      <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="24"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="31"/>
     </row>
     <row r="22" spans="1:30" s="19" customFormat="1">
       <c r="B22" s="20"/>
@@ -1496,17 +1556,17 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
       <c r="R22" s="21"/>
-      <c r="S22" s="23"/>
+      <c r="S22" s="26"/>
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
@@ -1514,25 +1574,57 @@
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
       <c r="Z22" s="21"/>
-      <c r="AA22" s="23"/>
+      <c r="AA22" s="26"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
       <c r="AD22" s="24"/>
     </row>
+    <row r="23" spans="1:30" s="19" customFormat="1">
+      <c r="B23" s="20"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="24"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AD22"/>
-  <mergeCells count="11">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:AA1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
+  <autoFilter ref="A3:AD23"/>
+  <mergeCells count="12">
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:AA2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
